--- a/ChanjoKe-FHIR-IG/StructureDefinition-kenya-counties-extension.xlsx
+++ b/ChanjoKe-FHIR-IG/StructureDefinition-kenya-counties-extension.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://shr.tiberbuapps.com/fhir/StructureDefinition/kenya-counties-extension</t>
+    <t>https://intellisoft-consulting.github.io/igs/ChanjoKe-FHIR-IG/StructureDefinition/kenya-counties-extension</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-23T12:29:17+03:00</t>
+    <t>2024-08-27T20:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>intellisoftkenya</t>
+    <t>Intellisoft Consulting Ltd</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>intellisoftkenya (http://example.org/example-publisher)</t>
+    <t>Intellisoft Consulting Ltd (https://www.intellisoftkenya.com/, info[at]intellisoftkenya.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Claim</t>
+    <t>element:Patient</t>
   </si>
   <si>
     <t>ID</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://shr.tiberbuapps.com/fhir/ValueSet/KenyaCountiesVS</t>
+    <t>https://intellisoft-consulting.github.io/igs/ChanjoKe-FHIR-IG/ValueSet/kenyaCountiesVS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -692,7 +692,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.83984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.43359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
